--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ETDR.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ETDR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Case</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>12757900256303</t>
+  </si>
+  <si>
+    <t>reference_no_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.LEAD_FIELD5 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +475,10 @@
     <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +530,11 @@
       <c r="Q1" t="s">
         <v>29</v>
       </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,6 +579,9 @@
       </c>
       <c r="Q2" t="s">
         <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ETDR.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ETDR.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>As a user I want to verify Term Deposit</t>
+    <t>Category_Value</t>
+  </si>
+  <si>
+    <t>Deposit_Years_Value</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>profit_account</t>
+  </si>
+  <si>
+    <t>Amount_Value</t>
+  </si>
+  <si>
+    <t>tran_pass_value</t>
+  </si>
+  <si>
+    <t>Success_Message</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>from_account_query</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>Term Deposit</t>
+  </si>
+  <si>
+    <t>One Year</t>
+  </si>
+  <si>
+    <t>25500</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>Your transaction has been processed successfully.</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>HBL Advantage Plus</t>
+  </si>
+  <si>
+    <t>term_deposit_type</t>
+  </si>
+  <si>
+    <t>date_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>reference_no_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.LEAD_FIELD5 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
   </si>
   <si>
     <t>status_query</t>
@@ -38,101 +122,89 @@
     <t>status_query2</t>
   </si>
   <si>
-    <t>Category_Value</t>
-  </si>
-  <si>
-    <t>Deposit_Years_Value</t>
-  </si>
-  <si>
-    <t>account_no</t>
-  </si>
-  <si>
-    <t>profit_account</t>
-  </si>
-  <si>
-    <t>Amount_Value</t>
-  </si>
-  <si>
-    <t>tran_pass_value</t>
-  </si>
-  <si>
-    <t>Success_Message</t>
-  </si>
-  <si>
-    <t>tran_type_query</t>
-  </si>
-  <si>
-    <t>tran_amount_query</t>
-  </si>
-  <si>
-    <t>from_account_query</t>
-  </si>
-  <si>
-    <t>to_account_query</t>
-  </si>
-  <si>
-    <t>db_val</t>
-  </si>
-  <si>
-    <t>Term Deposit</t>
-  </si>
-  <si>
-    <t>One Year</t>
-  </si>
-  <si>
-    <t>25500</t>
-  </si>
-  <si>
-    <t>pakistan2</t>
-  </si>
-  <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
-    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>DIGITAL_CHANNEL_SEC</t>
-  </si>
-  <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
-    <t>HBL Advantage Plus</t>
-  </si>
-  <si>
-    <t>term_deposit_type</t>
-  </si>
-  <si>
-    <t>date_query</t>
-  </si>
-  <si>
-    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
-    <t>12757900256303</t>
-  </si>
-  <si>
-    <t>reference_no_query</t>
-  </si>
-  <si>
-    <t>SELECT DT.LEAD_FIELD5 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>Three Years</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>pakistan526</t>
+  </si>
+  <si>
+    <t>abc@@!%$</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>00387900044611</t>
+  </si>
+  <si>
+    <t>8497900068901</t>
+  </si>
+  <si>
+    <t>00470002795201</t>
+  </si>
+  <si>
+    <t>Five Years</t>
+  </si>
+  <si>
+    <t>Six Years</t>
+  </si>
+  <si>
+    <t>Seven Years</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit with Amount greater than available balance Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not successfully apply for Term Deposit greater than allowed limit Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit without selecting Term Deposit Type Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit without selecting Term Deposit Tenure Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with null From Account Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with null Account for Profit Disbursement Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with less than 25000 Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with greater than 10,000,000 Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with invalid Transaction Password Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with invalid amount value Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Current Account  Etdr_Current</t>
+  </si>
+  <si>
+    <t>To verify that Customer can not apply for Term Deposit with FCY account Etdr_Fcy</t>
+  </si>
+  <si>
+    <t>To verify that Customer can successfully apply for Term Deposit while From Account is Savings Account Etdr_Saving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +216,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MyFontLight"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,11 +243,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,21 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
@@ -478,111 +559,708 @@
     <col min="18" max="18" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="45">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="60">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="45">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="45">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="60">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="60">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
